--- a/src/main/resources/Datas/Regression Datas.xlsx
+++ b/src/main/resources/Datas/Regression Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -75,14 +151,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,121 +198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,37 +226,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,48 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,96 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,56 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,15 +431,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,7 +454,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,130 +538,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,7 +991,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1047,7 +1047,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/Datas/Regression Datas.xlsx
+++ b/src/main/resources/Datas/Regression Datas.xlsx
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Test Description</t>
+  </si>
   <si>
     <t xml:space="preserve">Username </t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Correct Username &amp; Correct Password</t>
   </si>
   <si>
     <t>Vendoadmin</t>
@@ -41,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -67,6 +73,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -75,30 +89,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,8 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,15 +173,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,23 +195,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,44 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,19 +232,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,19 +382,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,139 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +423,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,41 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,151 +499,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,37 +995,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="38.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="C2" r:id="rId1" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/Datas/Regression Datas.xlsx
+++ b/src/main/resources/Datas/Regression Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="19815" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Test Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Correct Username &amp; Correct Password</t>
   </si>
   <si>
     <t>Vendoadmin</t>
@@ -47,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -73,6 +67,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -82,7 +99,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -103,23 +128,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,23 +151,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,30 +190,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,45 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,11 +437,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,7 +457,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,7 +520,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,139 +529,139 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,44 +989,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
+    <hyperlink ref="B2" r:id="rId1" display="Vendo@2022" tooltip="mailto:Vendo@2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1141,7 +1128,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/src/main/resources/Datas/Regression Datas.xlsx
+++ b/src/main/resources/Datas/Regression Datas.xlsx
@@ -22,18 +22,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Username </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Vendoadmin</t>
+  </si>
+  <si>
+    <t>Vendo@2022</t>
+  </si>
+  <si>
+    <t>Agency Name</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>constitution</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ContatctType</t>
+  </si>
+  <si>
+    <t>ContactNo</t>
+  </si>
+  <si>
+    <t>Landline</t>
+  </si>
+  <si>
+    <t>GST no</t>
+  </si>
+  <si>
+    <t>Alternative Contact person</t>
+  </si>
+  <si>
+    <t>Alternative Contact Mobile No</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Vendoadmin</t>
-  </si>
-  <si>
-    <t>Vendo@2022</t>
+    <t>Aadharno</t>
+  </si>
+  <si>
+    <t>PanNumber</t>
+  </si>
+  <si>
+    <t>Aadharimage</t>
+  </si>
+  <si>
+    <t>Panimage</t>
+  </si>
+  <si>
+    <t>Gstimage</t>
+  </si>
+  <si>
+    <t>Karthik Agency</t>
+  </si>
+  <si>
+    <t>Karthi</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>Proprietor</t>
+  </si>
+  <si>
+    <t>ezhilrj6@gmail.com</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>9840908486</t>
+  </si>
+  <si>
+    <t>044-76897654</t>
+  </si>
+  <si>
+    <t>000000000000000</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>8768975679</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>600019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No 35A,Thilagar nagar, </t>
+  </si>
+  <si>
+    <t>Ezhil</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>96986987987</t>
+  </si>
+  <si>
+    <t>AER89076HJ</t>
   </si>
 </sst>
 </file>
@@ -41,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +202,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -74,55 +245,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,23 +316,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,45 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,49 +366,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,145 +550,39 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,6 +597,60 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,224 +672,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +1163,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1002,18 +1173,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1029,14 +1200,188 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.9142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.57142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.9619047619048" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85714285714286" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="ezhilrj6@gmail.com"/>
+    <hyperlink ref="S2" r:id="rId2" display="Test@123"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
